--- a/Test1.xlsx
+++ b/Test1.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serghei\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oytunpiren/CucumberManufactModule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470A7A35-09F1-49D2-8EB6-56344D077FFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AA410C-4C07-564E-9826-EF060CE4C5DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="1560" windowWidth="17295" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2500" yWindow="1560" windowWidth="21500" windowHeight="11740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ORDER" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,16 +25,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="4">
   <si>
-    <t>qwe</t>
+    <t>Manufacturing order</t>
+  </si>
+  <si>
+    <t>[E-COM05] Book2</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>[C-Case] Computer Case</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,13 +52,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -63,8 +86,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -345,20 +374,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="26.1640625" collapsed="false"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>123</v>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Test1.xlsx
+++ b/Test1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serghei\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serghei\Desktop\CucumberManufactureModule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470A7A35-09F1-49D2-8EB6-56344D077FFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A311B0-AE5B-4E36-9685-8D4244DA674F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="1560" windowWidth="17295" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="23310" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,14 +27,14 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>qwe</t>
+    <t>Manufacturing Order</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,16 +42,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -59,12 +72,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -345,20 +379,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>123</v>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Test1.xlsx
+++ b/Test1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="4">
   <si>
     <t>Manufacturing order</t>
   </si>
@@ -380,7 +380,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.1640625" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="26.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="31" customHeight="1" x14ac:dyDescent="0.2">

--- a/Test1.xlsx
+++ b/Test1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="4">
   <si>
     <t>Manufacturing order</t>
   </si>
@@ -400,17 +400,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -420,22 +420,22 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
